--- a/src/main/webapp/WEB-INF/excel/board.xlsx
+++ b/src/main/webapp/WEB-INF/excel/board.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -34,15 +34,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;jx:forEach var="item" items="${list}" varStatus="status"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">${status.index + 1}   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.b_title</t>
+    <t>${status.index+1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.b_title}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,7 +54,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;/jx:forEach&gt;</t>
+    <t>&lt;jx:forEach var="item" items="${list}" varStatus="status"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +409,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -436,12 +436,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -455,12 +455,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
